--- a/BackTest/2020-01-22 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-22 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>24348.04818478</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>27464.14638478</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>31818.28778478</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>32504.68888478</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>29401.00068478</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>28410.03738478</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>34704.00063601</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>34704.00063601</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>35745.10373601</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>37662.20413601</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>32284.92423601</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>37658.72063601</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>35643.81063601</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>35643.81063601</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>35643.81063601</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>35643.81063601</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>35643.81063601</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>35643.81063601</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>35643.81063601</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>33456.17223601</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>33456.17223601</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>28107.94683601</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>28107.94683601</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>28107.94683601</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>28107.94683601</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>28107.94683601</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>25298.85063601</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>25298.85063601</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>28849.74713601</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>31361.60623601</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>26388.35753601</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>26388.35753601</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>21178.48533601</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>21178.48533601</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>21178.48533601</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>24342.62583601</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>20476.70173601</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>20476.70173601</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>16936.54623601</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>16936.54623601</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>11198.03523601</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>8413.014136009995</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-56176.55535660001</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-49632.97615660001</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-43862.46245660001</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-42333.7744566</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-40226.4242566</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-44286.2805566</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-43657.3608566</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-44113.0414566</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-59801.84375660002</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-59801.84375660002</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-59801.84375660002</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-85230.69995660003</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-85230.69995660003</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-85230.69995660003</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-76588.39095660004</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-79424.06355660004</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-79424.06355660004</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-79424.06355660004</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-79424.06355660004</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-79424.06355660004</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-79424.06355660004</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-72208.09575660004</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-72208.09575660004</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-68232.63095660004</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-68232.63095660004</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-68232.63095660004</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-71641.56835660004</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-71641.56835660004</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-71641.56835660004</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-68346.89565660004</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-69600.05565660005</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-69600.05565660005</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-72167.10805660005</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-73945.92555660004</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-73945.92555660004</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-73945.92555660004</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-73945.92555660004</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-73031.04855660004</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-73031.04855660004</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-73031.04855660004</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-70963.95495660004</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -35794,10 +35794,14 @@
         <v>-199780.6350350502</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
@@ -35827,11 +35831,19 @@
         <v>-203047.5886350502</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35860,11 +35872,19 @@
         <v>-200248.5559350502</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35893,11 +35913,19 @@
         <v>-201920.7187350502</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35926,11 +35954,19 @@
         <v>-189358.3908350502</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -35959,15 +35995,17 @@
         <v>-207379.4978350502</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1078" t="n">
         <v>224.8</v>
       </c>
-      <c r="J1078" t="inlineStr"/>
+      <c r="J1078" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1078" t="n">
@@ -36001,7 +36039,9 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36038,7 +36078,9 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
+      <c r="J1080" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36075,7 +36117,9 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
+      <c r="J1081" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36112,7 +36156,9 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
+      <c r="J1082" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36149,7 +36195,9 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36186,7 +36234,9 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36220,10 +36270,14 @@
         <v>-199701.8822350502</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36257,10 +36311,14 @@
         <v>-199701.8822350502</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36294,10 +36352,14 @@
         <v>-196622.1054350502</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36331,10 +36393,14 @@
         <v>-192224.2770350502</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36368,10 +36434,14 @@
         <v>-188833.7182350502</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>225</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36405,10 +36475,14 @@
         <v>-188833.7182350502</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36442,10 +36516,14 @@
         <v>-188833.7182350502</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36482,7 +36560,9 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36519,7 +36599,9 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36556,7 +36638,9 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36593,7 +36677,9 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36630,7 +36716,9 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36667,7 +36755,9 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36704,7 +36794,9 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36741,7 +36833,9 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36778,7 +36872,9 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36815,7 +36911,9 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36852,7 +36950,9 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36889,7 +36989,9 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36926,7 +37028,9 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36963,7 +37067,9 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37000,7 +37106,9 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37037,7 +37145,9 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37074,7 +37184,9 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37111,7 +37223,9 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37148,7 +37262,9 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37185,7 +37301,9 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37222,7 +37340,9 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37259,7 +37379,9 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37296,7 +37418,9 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37333,7 +37457,9 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37370,7 +37496,9 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37407,7 +37535,9 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37444,7 +37574,9 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37481,7 +37613,9 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37518,7 +37652,9 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
+      <c r="J1120" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37555,7 +37691,9 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37592,7 +37730,9 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37629,7 +37769,9 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37666,7 +37808,9 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37703,7 +37847,9 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37740,7 +37886,9 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37777,7 +37925,9 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37814,7 +37964,9 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37851,7 +38003,9 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37888,7 +38042,9 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37925,7 +38081,9 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
+      <c r="J1131" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37962,7 +38120,9 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
+      <c r="J1132" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37999,7 +38159,9 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
+      <c r="J1133" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38036,7 +38198,9 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38073,7 +38237,9 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38110,7 +38276,9 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38147,7 +38315,9 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38184,7 +38354,9 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38221,7 +38393,9 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38258,7 +38432,9 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38295,7 +38471,9 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38332,7 +38510,9 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38369,7 +38549,9 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38406,7 +38588,9 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38443,7 +38627,9 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38480,7 +38666,9 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38517,7 +38705,9 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38554,7 +38744,9 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38591,7 +38783,9 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
+      <c r="J1149" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38628,7 +38822,9 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
+      <c r="J1150" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38665,7 +38861,9 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38699,10 +38897,14 @@
         <v>-242176.3227250701</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38736,12 +38938,14 @@
         <v>-239924.2573250701</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1153" t="n">
         <v>225.1</v>
       </c>
-      <c r="J1153" t="inlineStr"/>
+      <c r="J1153" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38775,12 +38979,14 @@
         <v>-241345.2754250701</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1154" t="n">
         <v>225.2</v>
       </c>
-      <c r="J1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38817,7 +39023,9 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38851,12 +39059,14 @@
         <v>-247099.1394250701</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1156" t="n">
         <v>224.9</v>
       </c>
-      <c r="J1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38890,10 +39100,14 @@
         <v>-247099.1394250701</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>225</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38930,7 +39144,9 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38967,7 +39183,9 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39004,7 +39222,9 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
+      <c r="J1160" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39041,7 +39261,9 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
+      <c r="J1161" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39078,7 +39300,9 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39115,7 +39339,9 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39152,7 +39378,9 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39189,7 +39417,9 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
+      <c r="J1165" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39226,7 +39456,9 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
+      <c r="J1166" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39263,7 +39495,9 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
+      <c r="J1167" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39300,7 +39534,9 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
+      <c r="J1168" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39337,7 +39573,9 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
+      <c r="J1169" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39371,10 +39609,14 @@
         <v>-234297.5985250701</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39411,7 +39653,9 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39448,7 +39692,9 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39485,7 +39731,9 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39519,10 +39767,14 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39559,7 +39811,9 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39596,7 +39850,9 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39633,7 +39889,9 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39670,7 +39928,9 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
+      <c r="J1178" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39707,7 +39967,9 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
+      <c r="J1179" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39744,7 +40006,9 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
+      <c r="J1180" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39781,7 +40045,9 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
+      <c r="J1181" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39818,7 +40084,9 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
+      <c r="J1182" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39855,7 +40123,9 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
+      <c r="J1183" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39892,7 +40162,9 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
+      <c r="J1184" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39929,7 +40201,9 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
+      <c r="J1185" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39966,7 +40240,9 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
+      <c r="J1186" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40003,7 +40279,9 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
+      <c r="J1187" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40040,7 +40318,9 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
+      <c r="J1188" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40077,7 +40357,9 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
+      <c r="J1189" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40114,7 +40396,9 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
+      <c r="J1190" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40151,7 +40435,9 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
+      <c r="J1191" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40188,7 +40474,9 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="inlineStr"/>
+      <c r="J1192" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40222,12 +40510,12 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1193" t="n">
-        <v>225</v>
-      </c>
-      <c r="J1193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1193" t="inlineStr"/>
+      <c r="J1193" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40264,7 +40552,9 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="inlineStr"/>
+      <c r="J1194" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40301,7 +40591,9 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
+      <c r="J1195" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40338,7 +40630,9 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
+      <c r="J1196" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40375,7 +40669,9 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
+      <c r="J1197" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40412,7 +40708,9 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
+      <c r="J1198" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40449,7 +40747,9 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
+      <c r="J1199" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40483,12 +40783,12 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>225</v>
-      </c>
-      <c r="J1200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr"/>
+      <c r="J1200" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40522,12 +40822,12 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1201" t="n">
-        <v>225</v>
-      </c>
-      <c r="J1201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1201" t="inlineStr"/>
+      <c r="J1201" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40561,12 +40861,12 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1202" t="n">
-        <v>225</v>
-      </c>
-      <c r="J1202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr"/>
+      <c r="J1202" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40600,12 +40900,12 @@
         <v>-242651.7906250701</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1203" t="n">
-        <v>225</v>
-      </c>
-      <c r="J1203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr"/>
+      <c r="J1203" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40642,7 +40942,9 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
+      <c r="J1204" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40679,7 +40981,9 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
+      <c r="J1205" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40716,7 +41020,9 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
+      <c r="J1206" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40753,7 +41059,9 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
+      <c r="J1207" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40790,7 +41098,9 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
+      <c r="J1208" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40824,12 +41134,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="J1209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
+      <c r="J1209" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40863,12 +41173,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="J1210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
+      <c r="J1210" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40902,12 +41212,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="J1211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
+      <c r="J1211" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40941,12 +41251,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1212" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="J1212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr"/>
+      <c r="J1212" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40980,12 +41290,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1213" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="J1213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1213" t="inlineStr"/>
+      <c r="J1213" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41022,7 +41332,9 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
+      <c r="J1214" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41059,7 +41371,9 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
+      <c r="J1215" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41096,7 +41410,9 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
+      <c r="J1216" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41133,7 +41449,9 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
+      <c r="J1217" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41170,7 +41488,9 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
+      <c r="J1218" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41207,7 +41527,9 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
+      <c r="J1219" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41244,7 +41566,9 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41281,7 +41605,9 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
+      <c r="J1221" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41318,7 +41644,9 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41355,7 +41683,9 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41392,7 +41722,9 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
+      <c r="J1224" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41429,7 +41761,9 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41466,7 +41800,9 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+      <c r="J1226" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41503,7 +41839,9 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41540,7 +41878,9 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41577,7 +41917,9 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41614,7 +41956,9 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
+      <c r="J1230" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41651,7 +41995,9 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41688,7 +42034,9 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41725,7 +42073,9 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41762,7 +42112,9 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+      <c r="J1234" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41799,7 +42151,9 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41836,7 +42190,9 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41873,7 +42229,9 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
+      <c r="J1237" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41910,7 +42268,9 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41947,7 +42307,9 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41984,7 +42346,9 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42021,7 +42385,9 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42058,7 +42424,9 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42095,7 +42463,9 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42132,7 +42502,9 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
+      <c r="J1244" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42169,7 +42541,9 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
+      <c r="J1245" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42206,7 +42580,9 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
+      <c r="J1246" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42243,7 +42619,9 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
+      <c r="J1247" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42280,7 +42658,9 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="inlineStr"/>
+      <c r="J1248" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42317,7 +42697,9 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
+      <c r="J1249" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42354,7 +42736,9 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42391,7 +42775,9 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="inlineStr"/>
+      <c r="J1251" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42428,7 +42814,9 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42465,7 +42853,9 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42502,7 +42892,9 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="inlineStr"/>
+      <c r="J1254" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42539,7 +42931,9 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="inlineStr"/>
+      <c r="J1255" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42576,7 +42970,9 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42613,7 +43009,9 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42650,7 +43048,9 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="inlineStr"/>
+      <c r="J1258" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42687,7 +43087,9 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42724,7 +43126,9 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="inlineStr"/>
+      <c r="J1260" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42761,7 +43165,9 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="inlineStr"/>
+      <c r="J1261" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42798,7 +43204,9 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42835,7 +43243,9 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42872,7 +43282,9 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="inlineStr"/>
+      <c r="J1264" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42909,7 +43321,9 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="inlineStr"/>
+      <c r="J1265" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42946,7 +43360,9 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="inlineStr"/>
+      <c r="J1266" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42983,7 +43399,9 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="inlineStr"/>
+      <c r="J1267" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43020,7 +43438,9 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43057,7 +43477,9 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="inlineStr"/>
+      <c r="J1269" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43094,7 +43516,9 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="inlineStr"/>
+      <c r="J1270" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43131,7 +43555,9 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="inlineStr"/>
+      <c r="J1271" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43168,7 +43594,9 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43205,7 +43633,9 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="inlineStr"/>
+      <c r="J1273" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43242,7 +43672,9 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43279,7 +43711,9 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43316,7 +43750,9 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43353,7 +43789,9 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="inlineStr"/>
+      <c r="J1277" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43390,7 +43828,9 @@
         <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="inlineStr"/>
+      <c r="J1278" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43427,7 +43867,9 @@
         <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
-      <c r="J1279" t="inlineStr"/>
+      <c r="J1279" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43464,7 +43906,9 @@
         <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="inlineStr"/>
+      <c r="J1280" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43501,7 +43945,9 @@
         <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="inlineStr"/>
+      <c r="J1281" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43538,7 +43984,9 @@
         <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="inlineStr"/>
+      <c r="J1282" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43575,7 +44023,9 @@
         <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="inlineStr"/>
+      <c r="J1283" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43612,7 +44062,9 @@
         <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
-      <c r="J1284" t="inlineStr"/>
+      <c r="J1284" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43649,7 +44101,9 @@
         <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
-      <c r="J1285" t="inlineStr"/>
+      <c r="J1285" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43686,7 +44140,9 @@
         <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
-      <c r="J1286" t="inlineStr"/>
+      <c r="J1286" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43723,7 +44179,9 @@
         <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
-      <c r="J1287" t="inlineStr"/>
+      <c r="J1287" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43760,7 +44218,9 @@
         <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
-      <c r="J1288" t="inlineStr"/>
+      <c r="J1288" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43797,7 +44257,9 @@
         <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="inlineStr"/>
+      <c r="J1289" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43834,7 +44296,9 @@
         <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="inlineStr"/>
+      <c r="J1290" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43871,7 +44335,9 @@
         <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
-      <c r="J1291" t="inlineStr"/>
+      <c r="J1291" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43908,7 +44374,9 @@
         <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="inlineStr"/>
+      <c r="J1292" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43945,7 +44413,9 @@
         <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
-      <c r="J1293" t="inlineStr"/>
+      <c r="J1293" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43982,7 +44452,9 @@
         <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
-      <c r="J1294" t="inlineStr"/>
+      <c r="J1294" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44019,7 +44491,9 @@
         <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="inlineStr"/>
+      <c r="J1295" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44056,7 +44530,9 @@
         <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="inlineStr"/>
+      <c r="J1296" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44093,7 +44569,9 @@
         <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="inlineStr"/>
+      <c r="J1297" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44130,7 +44608,9 @@
         <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="inlineStr"/>
+      <c r="J1298" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44167,7 +44647,9 @@
         <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="inlineStr"/>
+      <c r="J1299" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44204,7 +44686,9 @@
         <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="inlineStr"/>
+      <c r="J1300" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44241,7 +44725,9 @@
         <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="inlineStr"/>
+      <c r="J1301" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44278,7 +44764,9 @@
         <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="inlineStr"/>
+      <c r="J1302" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44315,7 +44803,9 @@
         <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
-      <c r="J1303" t="inlineStr"/>
+      <c r="J1303" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44352,7 +44842,9 @@
         <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="inlineStr"/>
+      <c r="J1304" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44389,7 +44881,9 @@
         <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
-      <c r="J1305" t="inlineStr"/>
+      <c r="J1305" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44426,7 +44920,9 @@
         <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="inlineStr"/>
+      <c r="J1306" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44463,7 +44959,9 @@
         <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
-      <c r="J1307" t="inlineStr"/>
+      <c r="J1307" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44500,7 +44998,9 @@
         <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
-      <c r="J1308" t="inlineStr"/>
+      <c r="J1308" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44537,7 +45037,9 @@
         <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="inlineStr"/>
+      <c r="J1309" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44574,7 +45076,9 @@
         <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="inlineStr"/>
+      <c r="J1310" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44611,7 +45115,9 @@
         <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="inlineStr"/>
+      <c r="J1311" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44648,7 +45154,9 @@
         <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="inlineStr"/>
+      <c r="J1312" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44685,7 +45193,9 @@
         <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
-      <c r="J1313" t="inlineStr"/>
+      <c r="J1313" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44722,7 +45232,9 @@
         <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
-      <c r="J1314" t="inlineStr"/>
+      <c r="J1314" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44759,7 +45271,9 @@
         <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
-      <c r="J1315" t="inlineStr"/>
+      <c r="J1315" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44796,7 +45310,9 @@
         <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
-      <c r="J1316" t="inlineStr"/>
+      <c r="J1316" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44833,7 +45349,9 @@
         <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="inlineStr"/>
+      <c r="J1317" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44870,7 +45388,9 @@
         <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="inlineStr"/>
+      <c r="J1318" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44907,7 +45427,9 @@
         <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="inlineStr"/>
+      <c r="J1319" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44944,7 +45466,9 @@
         <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="inlineStr"/>
+      <c r="J1320" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44981,7 +45505,9 @@
         <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
-      <c r="J1321" t="inlineStr"/>
+      <c r="J1321" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45018,7 +45544,9 @@
         <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
-      <c r="J1322" t="inlineStr"/>
+      <c r="J1322" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45055,7 +45583,9 @@
         <v>0</v>
       </c>
       <c r="I1323" t="inlineStr"/>
-      <c r="J1323" t="inlineStr"/>
+      <c r="J1323" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45092,7 +45622,9 @@
         <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
-      <c r="J1324" t="inlineStr"/>
+      <c r="J1324" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45129,7 +45661,9 @@
         <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
-      <c r="J1325" t="inlineStr"/>
+      <c r="J1325" t="n">
+        <v>224.4</v>
+      </c>
       <c r="K1325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45141,6 +45675,6 @@
       <c r="M1325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-22 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>24348.04818478</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>27464.14638478</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>31818.28778478</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>32504.68888478</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>28410.03738478</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -35794,14 +35794,10 @@
         <v>-199780.6350350502</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1073" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="J1073" t="n">
-        <v>224.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
@@ -35831,3561 +35827,2987 @@
         <v>-203047.5886350502</v>
       </c>
       <c r="H1074" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1074" t="inlineStr"/>
+      <c r="J1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr"/>
+      <c r="L1074" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="D1075" t="n">
         <v>224.7</v>
       </c>
-      <c r="J1074" t="n">
+      <c r="E1075" t="n">
         <v>224.4</v>
       </c>
-      <c r="K1074" t="inlineStr">
+      <c r="F1075" t="n">
+        <v>2799.0327</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>-200248.5559350502</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
+      <c r="J1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr"/>
+      <c r="L1075" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>1672.1628</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>-201920.7187350502</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
+      <c r="J1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr"/>
+      <c r="L1076" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>12562.3279</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>-189358.3908350502</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1077" t="inlineStr"/>
+      <c r="J1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr"/>
+      <c r="L1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>18021.107</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>-207379.4978350502</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1078" t="inlineStr"/>
+      <c r="J1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr"/>
+      <c r="L1078" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>3867.3454</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>-203512.1524350502</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1079" t="inlineStr"/>
+      <c r="J1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr"/>
+      <c r="L1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>4614.2749</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>-208126.4273350502</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
+      <c r="J1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr"/>
+      <c r="L1080" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>2040.5755</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>-206085.8518350502</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1081" t="inlineStr"/>
+      <c r="J1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr"/>
+      <c r="L1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>2497.0481</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>-208582.8999350502</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1082" t="inlineStr"/>
+      <c r="J1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr"/>
+      <c r="L1082" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>5533.6838</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>-203049.2161350502</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1083" t="inlineStr"/>
+      <c r="J1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr"/>
+      <c r="L1083" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>3347.3339</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>-199701.8822350502</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1084" t="inlineStr"/>
+      <c r="J1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr"/>
+      <c r="L1084" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>3431.2916</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>-199701.8822350502</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1085" t="inlineStr"/>
+      <c r="J1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr"/>
+      <c r="L1085" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>2326.9797</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>-199701.8822350502</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1086" t="inlineStr"/>
+      <c r="J1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr"/>
+      <c r="L1086" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>3079.7768</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>-196622.1054350502</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1087" t="inlineStr"/>
+      <c r="J1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr"/>
+      <c r="L1087" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>225</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>225</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>4397.8284</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>-192224.2770350502</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1088" t="inlineStr"/>
+      <c r="J1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr"/>
+      <c r="L1088" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>225</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>3390.5588</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>-188833.7182350502</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1089" t="inlineStr"/>
+      <c r="J1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr"/>
+      <c r="L1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>2255.3236</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>-188833.7182350502</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
+      <c r="J1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr"/>
+      <c r="L1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>2943.7942</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>-188833.7182350502</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
+      <c r="J1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr"/>
+      <c r="L1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>689.3234</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>-188833.7182350502</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
+      <c r="J1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr"/>
+      <c r="L1092" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>955.7883</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>-188833.7182350502</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
+      <c r="J1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr"/>
+      <c r="L1093" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>1694.0662</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>-188833.7182350502</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
+      <c r="J1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr"/>
+      <c r="L1094" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>1900.8093</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>-188833.7182350502</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
+      <c r="J1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr"/>
+      <c r="L1095" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>315.6991</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>-188518.0191350502</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
+      <c r="J1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr"/>
+      <c r="L1096" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>4416.9705</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>-192934.9896350502</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
+      <c r="J1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr"/>
+      <c r="L1097" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>4030.497</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>-192934.9896350502</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
+      <c r="J1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr"/>
+      <c r="L1098" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>1516.5033</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>-191418.4863350502</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1099" t="inlineStr"/>
+      <c r="J1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr"/>
+      <c r="L1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>-191418.4863350502</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1100" t="inlineStr"/>
+      <c r="J1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr"/>
+      <c r="L1100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>1254.9759</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>-192673.4622350502</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1101" t="inlineStr"/>
+      <c r="J1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr"/>
+      <c r="L1101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>2298.0842</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>-192673.4622350502</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1102" t="inlineStr"/>
+      <c r="J1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr"/>
+      <c r="L1102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>2363.3226</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>-192673.4622350502</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1103" t="inlineStr"/>
+      <c r="J1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr"/>
+      <c r="L1103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>2955.2979</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>-192673.4622350502</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
+      <c r="J1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr"/>
+      <c r="L1104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>4432.5021</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>-188240.9601350501</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
+      <c r="J1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr"/>
+      <c r="L1105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>2373.5792</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>-190614.5393350502</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
+      <c r="J1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr"/>
+      <c r="L1106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>2326.2358</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>-190614.5393350502</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1107" t="inlineStr"/>
+      <c r="J1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr"/>
+      <c r="L1107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>1176.9244</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>-190614.5393350502</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
+      <c r="J1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr"/>
+      <c r="L1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>1360.2121</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>-190614.5393350502</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
+      <c r="J1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr"/>
+      <c r="L1109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>2219.5742</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>-190614.5393350502</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
+      <c r="J1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr"/>
+      <c r="L1110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>7136.49130998</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>-183478.0480250702</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
+      <c r="J1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr"/>
+      <c r="L1111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>5014.5776</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>-178463.4704250702</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
+      <c r="J1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr"/>
+      <c r="L1112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>683.4346</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>-177780.0358250702</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
+      <c r="J1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr"/>
+      <c r="L1113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>182.6536</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>-177962.6894250702</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
+      <c r="J1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr"/>
+      <c r="L1114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>390.3978</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>-177962.6894250702</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
+      <c r="J1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr"/>
+      <c r="L1115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>203.1785</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>-177759.5109250701</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
+      <c r="J1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr"/>
+      <c r="L1116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>225.9283</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>-177985.4392250701</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
+      <c r="J1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr"/>
+      <c r="L1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>89.02970000000001</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>-177985.4392250701</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
+      <c r="J1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr"/>
+      <c r="L1118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>610.3059</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>-177375.1333250701</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
+      <c r="J1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr"/>
+      <c r="L1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>178.075</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>-177553.2083250702</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
+      <c r="J1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr"/>
+      <c r="L1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>267.2067</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>-177553.2083250702</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr"/>
+      <c r="L1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>89.0235</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>-177553.2083250702</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr"/>
+      <c r="L1122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>6060.6394</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>-183613.8477250701</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
+      <c r="J1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr"/>
+      <c r="L1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>2653.8792</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>-183613.8477250701</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
+      <c r="L1124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>2780.49</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>-183613.8477250701</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr"/>
+      <c r="L1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>3595.7919</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>-183613.8477250701</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1126" t="inlineStr"/>
+      <c r="J1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr"/>
+      <c r="L1126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>2959.6929</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>-183613.8477250701</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr"/>
+      <c r="L1127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>1475.498</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>-183613.8477250701</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr"/>
+      <c r="L1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>2576.1261</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>-183613.8477250701</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
+      <c r="J1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr"/>
+      <c r="L1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>2690.1597</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>-186304.0074250701</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
+      <c r="J1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr"/>
+      <c r="L1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>226</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>226</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>1642.382</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>-184661.6254250701</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr"/>
+      <c r="L1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>1434.5124</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>-184661.6254250701</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
+      <c r="J1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr"/>
+      <c r="L1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>1477.6348</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>-186139.2602250701</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
+      <c r="J1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr"/>
+      <c r="L1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>568.9413</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>-185570.3189250701</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1134" t="inlineStr"/>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr"/>
+      <c r="L1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>554.0807</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>-185570.3189250701</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
+      <c r="J1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr"/>
+      <c r="L1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>7334.7173</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>-185570.3189250701</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
+      <c r="J1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr"/>
+      <c r="L1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>226</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>226</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>4337.2972</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>-185570.3189250701</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
+      <c r="L1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>3792.1456</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>-185570.3189250701</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
+      <c r="J1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr"/>
+      <c r="L1138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>226</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>226</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>1078.9221</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>-184491.3968250701</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr"/>
+      <c r="L1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>2191.3674</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>-186682.7642250701</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
+      <c r="L1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>2365.5097</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>-189048.2739250701</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
+      <c r="L1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>4335.8543</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>-189048.2739250701</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
+      <c r="L1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>700.5451</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>-189048.2739250701</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1143" t="inlineStr"/>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
+      <c r="L1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>5765.2395</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>-194813.5134250701</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
+      <c r="L1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>225</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>225</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>51721.9167</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>-246535.4301250701</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
+      <c r="L1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>225</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>225</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>4979.1092</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>-246535.4301250701</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
+      <c r="L1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>225</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>225</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>2916.9934</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>-246535.4301250701</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr"/>
+      <c r="L1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>4359.1074</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>-242176.3227250701</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr"/>
+      <c r="L1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>1619.2231</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>-242176.3227250701</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
+      <c r="J1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr"/>
+      <c r="L1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>2453.0172</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>-242176.3227250701</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1150" t="inlineStr"/>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr"/>
+      <c r="L1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>5240.5356</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>-242176.3227250701</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
+      <c r="J1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr"/>
+      <c r="L1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>4310.3388</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>-242176.3227250701</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
+      <c r="J1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr"/>
+      <c r="L1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>2252.0654</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>-239924.2573250701</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
+      <c r="J1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr"/>
+      <c r="L1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>1421.0181</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>-241345.2754250701</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1154" t="inlineStr"/>
+      <c r="J1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr"/>
+      <c r="L1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>9666.435799999999</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>-251011.7112250701</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1155" t="inlineStr"/>
+      <c r="J1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr"/>
+      <c r="L1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>225</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>225</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>3912.5718</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>-247099.1394250701</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
+      <c r="J1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr"/>
+      <c r="L1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>225</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>225</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>4554.3765</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>-247099.1394250701</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
+      <c r="J1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr"/>
+      <c r="L1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>225</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>2305.8606</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>-244793.2788250701</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
+      <c r="J1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr"/>
+      <c r="L1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>225</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>3653.9614</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>-248447.2402250701</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
+      <c r="J1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr"/>
+      <c r="L1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>978.4447</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>-249425.6849250701</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
+      <c r="J1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr"/>
+      <c r="L1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>3198.9422</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>-246226.7427250701</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1161" t="inlineStr"/>
+      <c r="J1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr"/>
+      <c r="L1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>2644.0129</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>-248870.7556250701</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1162" t="inlineStr"/>
+      <c r="J1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr"/>
+      <c r="L1162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>2204.524</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>-248870.7556250701</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1163" t="inlineStr"/>
+      <c r="J1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr"/>
+      <c r="L1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>1955.0193</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>-246915.7363250701</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="J1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1074" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1074" t="inlineStr"/>
-    </row>
-    <row r="1075">
-      <c r="A1075" s="1" t="n">
-        <v>1073</v>
-      </c>
-      <c r="B1075" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="C1075" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="D1075" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="E1075" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="F1075" t="n">
-        <v>2799.0327</v>
-      </c>
-      <c r="G1075" t="n">
-        <v>-200248.5559350502</v>
-      </c>
-      <c r="H1075" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="J1075" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1075" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1075" t="inlineStr"/>
-    </row>
-    <row r="1076">
-      <c r="A1076" s="1" t="n">
-        <v>1074</v>
-      </c>
-      <c r="B1076" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="C1076" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="D1076" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="E1076" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="F1076" t="n">
-        <v>1672.1628</v>
-      </c>
-      <c r="G1076" t="n">
-        <v>-201920.7187350502</v>
-      </c>
-      <c r="H1076" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1076" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="J1076" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1076" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1076" t="inlineStr"/>
-    </row>
-    <row r="1077">
-      <c r="A1077" s="1" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B1077" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="C1077" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="D1077" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="E1077" t="n">
-        <v>224.3</v>
-      </c>
-      <c r="F1077" t="n">
-        <v>12562.3279</v>
-      </c>
-      <c r="G1077" t="n">
-        <v>-189358.3908350502</v>
-      </c>
-      <c r="H1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1077" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="J1077" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1077" t="inlineStr"/>
-    </row>
-    <row r="1078">
-      <c r="A1078" s="1" t="n">
-        <v>1076</v>
-      </c>
-      <c r="B1078" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="C1078" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="D1078" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="E1078" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="F1078" t="n">
-        <v>18021.107</v>
-      </c>
-      <c r="G1078" t="n">
-        <v>-207379.4978350502</v>
-      </c>
-      <c r="H1078" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1078" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="J1078" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1078" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1078" t="inlineStr"/>
-    </row>
-    <row r="1079">
-      <c r="A1079" s="1" t="n">
-        <v>1077</v>
-      </c>
-      <c r="B1079" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="C1079" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="D1079" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="E1079" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="F1079" t="n">
-        <v>3867.3454</v>
-      </c>
-      <c r="G1079" t="n">
-        <v>-203512.1524350502</v>
-      </c>
-      <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1079" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1079" t="inlineStr"/>
-    </row>
-    <row r="1080">
-      <c r="A1080" s="1" t="n">
-        <v>1078</v>
-      </c>
-      <c r="B1080" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="C1080" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="D1080" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1080" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="F1080" t="n">
-        <v>4614.2749</v>
-      </c>
-      <c r="G1080" t="n">
-        <v>-208126.4273350502</v>
-      </c>
-      <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1080" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1080" t="inlineStr"/>
-    </row>
-    <row r="1081">
-      <c r="A1081" s="1" t="n">
-        <v>1079</v>
-      </c>
-      <c r="B1081" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="C1081" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="D1081" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="E1081" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="F1081" t="n">
-        <v>2040.5755</v>
-      </c>
-      <c r="G1081" t="n">
-        <v>-206085.8518350502</v>
-      </c>
-      <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1081" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1081" t="inlineStr"/>
-    </row>
-    <row r="1082">
-      <c r="A1082" s="1" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B1082" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="C1082" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="D1082" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="E1082" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="F1082" t="n">
-        <v>2497.0481</v>
-      </c>
-      <c r="G1082" t="n">
-        <v>-208582.8999350502</v>
-      </c>
-      <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1082" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1082" t="inlineStr"/>
-    </row>
-    <row r="1083">
-      <c r="A1083" s="1" t="n">
-        <v>1081</v>
-      </c>
-      <c r="B1083" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="C1083" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="D1083" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="E1083" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="F1083" t="n">
-        <v>5533.6838</v>
-      </c>
-      <c r="G1083" t="n">
-        <v>-203049.2161350502</v>
-      </c>
-      <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1083" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1083" t="inlineStr"/>
-    </row>
-    <row r="1084">
-      <c r="A1084" s="1" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B1084" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="C1084" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="D1084" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="E1084" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="F1084" t="n">
-        <v>3347.3339</v>
-      </c>
-      <c r="G1084" t="n">
-        <v>-199701.8822350502</v>
-      </c>
-      <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1084" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1084" t="inlineStr"/>
-    </row>
-    <row r="1085">
-      <c r="A1085" s="1" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B1085" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="C1085" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="D1085" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1085" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="F1085" t="n">
-        <v>3431.2916</v>
-      </c>
-      <c r="G1085" t="n">
-        <v>-199701.8822350502</v>
-      </c>
-      <c r="H1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1085" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="J1085" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1085" t="inlineStr"/>
-    </row>
-    <row r="1086">
-      <c r="A1086" s="1" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B1086" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="C1086" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="D1086" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="E1086" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="F1086" t="n">
-        <v>2326.9797</v>
-      </c>
-      <c r="G1086" t="n">
-        <v>-199701.8822350502</v>
-      </c>
-      <c r="H1086" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1086" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="J1086" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1086" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1086" t="inlineStr"/>
-    </row>
-    <row r="1087">
-      <c r="A1087" s="1" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B1087" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="C1087" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="D1087" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="E1087" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="F1087" t="n">
-        <v>3079.7768</v>
-      </c>
-      <c r="G1087" t="n">
-        <v>-196622.1054350502</v>
-      </c>
-      <c r="H1087" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1087" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="J1087" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1087" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1087" t="inlineStr"/>
-    </row>
-    <row r="1088">
-      <c r="A1088" s="1" t="n">
-        <v>1086</v>
-      </c>
-      <c r="B1088" t="n">
-        <v>225</v>
-      </c>
-      <c r="C1088" t="n">
-        <v>225</v>
-      </c>
-      <c r="D1088" t="n">
-        <v>225</v>
-      </c>
-      <c r="E1088" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="F1088" t="n">
-        <v>4397.8284</v>
-      </c>
-      <c r="G1088" t="n">
-        <v>-192224.2770350502</v>
-      </c>
-      <c r="H1088" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1088" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="J1088" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1088" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1088" t="inlineStr"/>
-    </row>
-    <row r="1089">
-      <c r="A1089" s="1" t="n">
-        <v>1087</v>
-      </c>
-      <c r="B1089" t="n">
-        <v>225</v>
-      </c>
-      <c r="C1089" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1089" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1089" t="n">
-        <v>225</v>
-      </c>
-      <c r="F1089" t="n">
-        <v>3390.5588</v>
-      </c>
-      <c r="G1089" t="n">
-        <v>-188833.7182350502</v>
-      </c>
-      <c r="H1089" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1089" t="n">
-        <v>225</v>
-      </c>
-      <c r="J1089" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1089" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1089" t="inlineStr"/>
-    </row>
-    <row r="1090">
-      <c r="A1090" s="1" t="n">
-        <v>1088</v>
-      </c>
-      <c r="B1090" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1090" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1090" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1090" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1090" t="n">
-        <v>2255.3236</v>
-      </c>
-      <c r="G1090" t="n">
-        <v>-188833.7182350502</v>
-      </c>
-      <c r="H1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1090" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="J1090" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1090" t="inlineStr"/>
-    </row>
-    <row r="1091">
-      <c r="A1091" s="1" t="n">
-        <v>1089</v>
-      </c>
-      <c r="B1091" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1091" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1091" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1091" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1091" t="n">
-        <v>2943.7942</v>
-      </c>
-      <c r="G1091" t="n">
-        <v>-188833.7182350502</v>
-      </c>
-      <c r="H1091" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1091" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="J1091" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1091" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1091" t="inlineStr"/>
-    </row>
-    <row r="1092">
-      <c r="A1092" s="1" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B1092" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1092" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1092" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1092" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1092" t="n">
-        <v>689.3234</v>
-      </c>
-      <c r="G1092" t="n">
-        <v>-188833.7182350502</v>
-      </c>
-      <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1092" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1092" t="inlineStr"/>
-    </row>
-    <row r="1093">
-      <c r="A1093" s="1" t="n">
-        <v>1091</v>
-      </c>
-      <c r="B1093" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1093" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1093" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1093" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1093" t="n">
-        <v>955.7883</v>
-      </c>
-      <c r="G1093" t="n">
-        <v>-188833.7182350502</v>
-      </c>
-      <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1093" t="inlineStr"/>
-    </row>
-    <row r="1094">
-      <c r="A1094" s="1" t="n">
-        <v>1092</v>
-      </c>
-      <c r="B1094" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1094" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1094" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1094" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1094" t="n">
-        <v>1694.0662</v>
-      </c>
-      <c r="G1094" t="n">
-        <v>-188833.7182350502</v>
-      </c>
-      <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1094" t="inlineStr"/>
-    </row>
-    <row r="1095">
-      <c r="A1095" s="1" t="n">
-        <v>1093</v>
-      </c>
-      <c r="B1095" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1095" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1095" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1095" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1095" t="n">
-        <v>1900.8093</v>
-      </c>
-      <c r="G1095" t="n">
-        <v>-188833.7182350502</v>
-      </c>
-      <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1095" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1095" t="inlineStr"/>
-    </row>
-    <row r="1096">
-      <c r="A1096" s="1" t="n">
-        <v>1094</v>
-      </c>
-      <c r="B1096" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="C1096" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="D1096" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1096" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="F1096" t="n">
-        <v>315.6991</v>
-      </c>
-      <c r="G1096" t="n">
-        <v>-188518.0191350502</v>
-      </c>
-      <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1096" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1096" t="inlineStr"/>
-    </row>
-    <row r="1097">
-      <c r="A1097" s="1" t="n">
-        <v>1095</v>
-      </c>
-      <c r="B1097" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="C1097" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="D1097" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="E1097" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="F1097" t="n">
-        <v>4416.9705</v>
-      </c>
-      <c r="G1097" t="n">
-        <v>-192934.9896350502</v>
-      </c>
-      <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1097" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1097" t="inlineStr"/>
-    </row>
-    <row r="1098">
-      <c r="A1098" s="1" t="n">
-        <v>1096</v>
-      </c>
-      <c r="B1098" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="C1098" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="D1098" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1098" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="F1098" t="n">
-        <v>4030.497</v>
-      </c>
-      <c r="G1098" t="n">
-        <v>-192934.9896350502</v>
-      </c>
-      <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1098" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1098" t="inlineStr"/>
-    </row>
-    <row r="1099">
-      <c r="A1099" s="1" t="n">
-        <v>1097</v>
-      </c>
-      <c r="B1099" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="C1099" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="D1099" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="E1099" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="F1099" t="n">
-        <v>1516.5033</v>
-      </c>
-      <c r="G1099" t="n">
-        <v>-191418.4863350502</v>
-      </c>
-      <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1099" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1099" t="inlineStr"/>
-    </row>
-    <row r="1100">
-      <c r="A1100" s="1" t="n">
-        <v>1098</v>
-      </c>
-      <c r="B1100" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="C1100" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="D1100" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1100" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="F1100" t="n">
-        <v>100</v>
-      </c>
-      <c r="G1100" t="n">
-        <v>-191418.4863350502</v>
-      </c>
-      <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1100" t="inlineStr"/>
-    </row>
-    <row r="1101">
-      <c r="A1101" s="1" t="n">
-        <v>1099</v>
-      </c>
-      <c r="B1101" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="C1101" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="D1101" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="E1101" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="F1101" t="n">
-        <v>1254.9759</v>
-      </c>
-      <c r="G1101" t="n">
-        <v>-192673.4622350502</v>
-      </c>
-      <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1101" t="inlineStr"/>
-    </row>
-    <row r="1102">
-      <c r="A1102" s="1" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B1102" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="C1102" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="D1102" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1102" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="F1102" t="n">
-        <v>2298.0842</v>
-      </c>
-      <c r="G1102" t="n">
-        <v>-192673.4622350502</v>
-      </c>
-      <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1102" t="inlineStr"/>
-    </row>
-    <row r="1103">
-      <c r="A1103" s="1" t="n">
-        <v>1101</v>
-      </c>
-      <c r="B1103" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="C1103" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="D1103" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="E1103" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="F1103" t="n">
-        <v>2363.3226</v>
-      </c>
-      <c r="G1103" t="n">
-        <v>-192673.4622350502</v>
-      </c>
-      <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1103" t="inlineStr"/>
-    </row>
-    <row r="1104">
-      <c r="A1104" s="1" t="n">
-        <v>1102</v>
-      </c>
-      <c r="B1104" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="C1104" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="D1104" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="E1104" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="F1104" t="n">
-        <v>2955.2979</v>
-      </c>
-      <c r="G1104" t="n">
-        <v>-192673.4622350502</v>
-      </c>
-      <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1104" t="inlineStr"/>
-    </row>
-    <row r="1105">
-      <c r="A1105" s="1" t="n">
-        <v>1103</v>
-      </c>
-      <c r="B1105" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="C1105" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="D1105" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="E1105" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="F1105" t="n">
-        <v>4432.5021</v>
-      </c>
-      <c r="G1105" t="n">
-        <v>-188240.9601350501</v>
-      </c>
-      <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1105" t="inlineStr"/>
-    </row>
-    <row r="1106">
-      <c r="A1106" s="1" t="n">
-        <v>1104</v>
-      </c>
-      <c r="B1106" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="C1106" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="D1106" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1106" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="F1106" t="n">
-        <v>2373.5792</v>
-      </c>
-      <c r="G1106" t="n">
-        <v>-190614.5393350502</v>
-      </c>
-      <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1106" t="inlineStr"/>
-    </row>
-    <row r="1107">
-      <c r="A1107" s="1" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B1107" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="C1107" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="D1107" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1107" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="F1107" t="n">
-        <v>2326.2358</v>
-      </c>
-      <c r="G1107" t="n">
-        <v>-190614.5393350502</v>
-      </c>
-      <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1107" t="inlineStr"/>
-    </row>
-    <row r="1108">
-      <c r="A1108" s="1" t="n">
-        <v>1106</v>
-      </c>
-      <c r="B1108" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="C1108" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="D1108" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1108" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="F1108" t="n">
-        <v>1176.9244</v>
-      </c>
-      <c r="G1108" t="n">
-        <v>-190614.5393350502</v>
-      </c>
-      <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1108" t="inlineStr"/>
-    </row>
-    <row r="1109">
-      <c r="A1109" s="1" t="n">
-        <v>1107</v>
-      </c>
-      <c r="B1109" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="C1109" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="D1109" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1109" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="F1109" t="n">
-        <v>1360.2121</v>
-      </c>
-      <c r="G1109" t="n">
-        <v>-190614.5393350502</v>
-      </c>
-      <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1109" t="inlineStr"/>
-    </row>
-    <row r="1110">
-      <c r="A1110" s="1" t="n">
-        <v>1108</v>
-      </c>
-      <c r="B1110" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="C1110" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="D1110" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1110" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="F1110" t="n">
-        <v>2219.5742</v>
-      </c>
-      <c r="G1110" t="n">
-        <v>-190614.5393350502</v>
-      </c>
-      <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1110" t="inlineStr"/>
-    </row>
-    <row r="1111">
-      <c r="A1111" s="1" t="n">
-        <v>1109</v>
-      </c>
-      <c r="B1111" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="C1111" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="D1111" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="E1111" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="F1111" t="n">
-        <v>7136.49130998</v>
-      </c>
-      <c r="G1111" t="n">
-        <v>-183478.0480250702</v>
-      </c>
-      <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1111" t="inlineStr"/>
-    </row>
-    <row r="1112">
-      <c r="A1112" s="1" t="n">
-        <v>1110</v>
-      </c>
-      <c r="B1112" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1112" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D1112" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="E1112" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1112" t="n">
-        <v>5014.5776</v>
-      </c>
-      <c r="G1112" t="n">
-        <v>-178463.4704250702</v>
-      </c>
-      <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1112" t="inlineStr"/>
-    </row>
-    <row r="1113">
-      <c r="A1113" s="1" t="n">
-        <v>1111</v>
-      </c>
-      <c r="B1113" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1113" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="D1113" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="E1113" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1113" t="n">
-        <v>683.4346</v>
-      </c>
-      <c r="G1113" t="n">
-        <v>-177780.0358250702</v>
-      </c>
-      <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1113" t="inlineStr"/>
-    </row>
-    <row r="1114">
-      <c r="A1114" s="1" t="n">
-        <v>1112</v>
-      </c>
-      <c r="B1114" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1114" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D1114" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="E1114" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1114" t="n">
-        <v>182.6536</v>
-      </c>
-      <c r="G1114" t="n">
-        <v>-177962.6894250702</v>
-      </c>
-      <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1114" t="inlineStr"/>
-    </row>
-    <row r="1115">
-      <c r="A1115" s="1" t="n">
-        <v>1113</v>
-      </c>
-      <c r="B1115" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1115" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D1115" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="E1115" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1115" t="n">
-        <v>390.3978</v>
-      </c>
-      <c r="G1115" t="n">
-        <v>-177962.6894250702</v>
-      </c>
-      <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1115" t="inlineStr"/>
-    </row>
-    <row r="1116">
-      <c r="A1116" s="1" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B1116" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1116" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="D1116" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="E1116" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1116" t="n">
-        <v>203.1785</v>
-      </c>
-      <c r="G1116" t="n">
-        <v>-177759.5109250701</v>
-      </c>
-      <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1116" t="inlineStr"/>
-    </row>
-    <row r="1117">
-      <c r="A1117" s="1" t="n">
-        <v>1115</v>
-      </c>
-      <c r="B1117" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1117" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D1117" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="E1117" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1117" t="n">
-        <v>225.9283</v>
-      </c>
-      <c r="G1117" t="n">
-        <v>-177985.4392250701</v>
-      </c>
-      <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" s="1" t="n">
-        <v>1116</v>
-      </c>
-      <c r="B1118" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1118" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D1118" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="E1118" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1118" t="n">
-        <v>89.02970000000001</v>
-      </c>
-      <c r="G1118" t="n">
-        <v>-177985.4392250701</v>
-      </c>
-      <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" s="1" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B1119" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1119" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="D1119" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="E1119" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1119" t="n">
-        <v>610.3059</v>
-      </c>
-      <c r="G1119" t="n">
-        <v>-177375.1333250701</v>
-      </c>
-      <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" s="1" t="n">
-        <v>1118</v>
-      </c>
-      <c r="B1120" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1120" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D1120" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="E1120" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1120" t="n">
-        <v>178.075</v>
-      </c>
-      <c r="G1120" t="n">
-        <v>-177553.2083250702</v>
-      </c>
-      <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" s="1" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B1121" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1121" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D1121" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="E1121" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1121" t="n">
-        <v>267.2067</v>
-      </c>
-      <c r="G1121" t="n">
-        <v>-177553.2083250702</v>
-      </c>
-      <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" s="1" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B1122" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1122" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D1122" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="E1122" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F1122" t="n">
-        <v>89.0235</v>
-      </c>
-      <c r="G1122" t="n">
-        <v>-177553.2083250702</v>
-      </c>
-      <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" s="1" t="n">
-        <v>1121</v>
-      </c>
-      <c r="B1123" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C1123" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1123" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="E1123" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1123" t="n">
-        <v>6060.6394</v>
-      </c>
-      <c r="G1123" t="n">
-        <v>-183613.8477250701</v>
-      </c>
-      <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" s="1" t="n">
-        <v>1122</v>
-      </c>
-      <c r="B1124" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1124" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1124" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1124" t="n">
-        <v>2653.8792</v>
-      </c>
-      <c r="G1124" t="n">
-        <v>-183613.8477250701</v>
-      </c>
-      <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" s="1" t="n">
-        <v>1123</v>
-      </c>
-      <c r="B1125" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1125" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1125" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1125" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1125" t="n">
-        <v>2780.49</v>
-      </c>
-      <c r="G1125" t="n">
-        <v>-183613.8477250701</v>
-      </c>
-      <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" s="1" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B1126" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1126" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1126" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1126" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1126" t="n">
-        <v>3595.7919</v>
-      </c>
-      <c r="G1126" t="n">
-        <v>-183613.8477250701</v>
-      </c>
-      <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" s="1" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B1127" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1127" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1127" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1127" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1127" t="n">
-        <v>2959.6929</v>
-      </c>
-      <c r="G1127" t="n">
-        <v>-183613.8477250701</v>
-      </c>
-      <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" s="1" t="n">
-        <v>1126</v>
-      </c>
-      <c r="B1128" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1128" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1128" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1128" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1128" t="n">
-        <v>1475.498</v>
-      </c>
-      <c r="G1128" t="n">
-        <v>-183613.8477250701</v>
-      </c>
-      <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" s="1" t="n">
-        <v>1127</v>
-      </c>
-      <c r="B1129" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1129" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1129" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1129" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1129" t="n">
-        <v>2576.1261</v>
-      </c>
-      <c r="G1129" t="n">
-        <v>-183613.8477250701</v>
-      </c>
-      <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" s="1" t="n">
-        <v>1128</v>
-      </c>
-      <c r="B1130" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1130" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="D1130" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1130" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="F1130" t="n">
-        <v>2690.1597</v>
-      </c>
-      <c r="G1130" t="n">
-        <v>-186304.0074250701</v>
-      </c>
-      <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" s="1" t="n">
-        <v>1129</v>
-      </c>
-      <c r="B1131" t="n">
-        <v>226</v>
-      </c>
-      <c r="C1131" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1131" t="n">
-        <v>226</v>
-      </c>
-      <c r="E1131" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1131" t="n">
-        <v>1642.382</v>
-      </c>
-      <c r="G1131" t="n">
-        <v>-184661.6254250701</v>
-      </c>
-      <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" s="1" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B1132" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1132" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1132" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1132" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1132" t="n">
-        <v>1434.5124</v>
-      </c>
-      <c r="G1132" t="n">
-        <v>-184661.6254250701</v>
-      </c>
-      <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" s="1" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B1133" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1133" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="D1133" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1133" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="F1133" t="n">
-        <v>1477.6348</v>
-      </c>
-      <c r="G1133" t="n">
-        <v>-186139.2602250701</v>
-      </c>
-      <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" s="1" t="n">
-        <v>1132</v>
-      </c>
-      <c r="B1134" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1134" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1134" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1134" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1134" t="n">
-        <v>568.9413</v>
-      </c>
-      <c r="G1134" t="n">
-        <v>-185570.3189250701</v>
-      </c>
-      <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" s="1" t="n">
-        <v>1133</v>
-      </c>
-      <c r="B1135" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1135" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1135" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1135" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1135" t="n">
-        <v>554.0807</v>
-      </c>
-      <c r="G1135" t="n">
-        <v>-185570.3189250701</v>
-      </c>
-      <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" s="1" t="n">
-        <v>1134</v>
-      </c>
-      <c r="B1136" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1136" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1136" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1136" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="F1136" t="n">
-        <v>7334.7173</v>
-      </c>
-      <c r="G1136" t="n">
-        <v>-185570.3189250701</v>
-      </c>
-      <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" s="1" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B1137" t="n">
-        <v>226</v>
-      </c>
-      <c r="C1137" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1137" t="n">
-        <v>226</v>
-      </c>
-      <c r="E1137" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>4337.2972</v>
-      </c>
-      <c r="G1137" t="n">
-        <v>-185570.3189250701</v>
-      </c>
-      <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" s="1" t="n">
-        <v>1136</v>
-      </c>
-      <c r="B1138" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1138" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="D1138" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1138" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="F1138" t="n">
-        <v>3792.1456</v>
-      </c>
-      <c r="G1138" t="n">
-        <v>-185570.3189250701</v>
-      </c>
-      <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" s="1" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B1139" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1139" t="n">
-        <v>226</v>
-      </c>
-      <c r="D1139" t="n">
-        <v>226</v>
-      </c>
-      <c r="E1139" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="F1139" t="n">
-        <v>1078.9221</v>
-      </c>
-      <c r="G1139" t="n">
-        <v>-184491.3968250701</v>
-      </c>
-      <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" s="1" t="n">
-        <v>1138</v>
-      </c>
-      <c r="B1140" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C1140" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="D1140" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="E1140" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="F1140" t="n">
-        <v>2191.3674</v>
-      </c>
-      <c r="G1140" t="n">
-        <v>-186682.7642250701</v>
-      </c>
-      <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" s="1" t="n">
-        <v>1139</v>
-      </c>
-      <c r="B1141" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="C1141" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="D1141" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="E1141" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="F1141" t="n">
-        <v>2365.5097</v>
-      </c>
-      <c r="G1141" t="n">
-        <v>-189048.2739250701</v>
-      </c>
-      <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" s="1" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B1142" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="C1142" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="D1142" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="E1142" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="F1142" t="n">
-        <v>4335.8543</v>
-      </c>
-      <c r="G1142" t="n">
-        <v>-189048.2739250701</v>
-      </c>
-      <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" s="1" t="n">
-        <v>1141</v>
-      </c>
-      <c r="B1143" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="C1143" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="D1143" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="E1143" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="F1143" t="n">
-        <v>700.5451</v>
-      </c>
-      <c r="G1143" t="n">
-        <v>-189048.2739250701</v>
-      </c>
-      <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" s="1" t="n">
-        <v>1142</v>
-      </c>
-      <c r="B1144" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="C1144" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="D1144" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="E1144" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="F1144" t="n">
-        <v>5765.2395</v>
-      </c>
-      <c r="G1144" t="n">
-        <v>-194813.5134250701</v>
-      </c>
-      <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" s="1" t="n">
-        <v>1143</v>
-      </c>
-      <c r="B1145" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="C1145" t="n">
-        <v>225</v>
-      </c>
-      <c r="D1145" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="E1145" t="n">
-        <v>225</v>
-      </c>
-      <c r="F1145" t="n">
-        <v>51721.9167</v>
-      </c>
-      <c r="G1145" t="n">
-        <v>-246535.4301250701</v>
-      </c>
-      <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" s="1" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B1146" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="C1146" t="n">
-        <v>225</v>
-      </c>
-      <c r="D1146" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="E1146" t="n">
-        <v>225</v>
-      </c>
-      <c r="F1146" t="n">
-        <v>4979.1092</v>
-      </c>
-      <c r="G1146" t="n">
-        <v>-246535.4301250701</v>
-      </c>
-      <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" s="1" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B1147" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1147" t="n">
-        <v>225</v>
-      </c>
-      <c r="D1147" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1147" t="n">
-        <v>225</v>
-      </c>
-      <c r="F1147" t="n">
-        <v>2916.9934</v>
-      </c>
-      <c r="G1147" t="n">
-        <v>-246535.4301250701</v>
-      </c>
-      <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" s="1" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B1148" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1148" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1148" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1148" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1148" t="n">
-        <v>4359.1074</v>
-      </c>
-      <c r="G1148" t="n">
-        <v>-242176.3227250701</v>
-      </c>
-      <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" s="1" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B1149" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="C1149" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1149" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="E1149" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1149" t="n">
-        <v>1619.2231</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>-242176.3227250701</v>
-      </c>
-      <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" s="1" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B1150" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="C1150" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1150" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="E1150" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1150" t="n">
-        <v>2453.0172</v>
-      </c>
-      <c r="G1150" t="n">
-        <v>-242176.3227250701</v>
-      </c>
-      <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" s="1" t="n">
-        <v>1149</v>
-      </c>
-      <c r="B1151" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1151" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1151" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="E1151" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1151" t="n">
-        <v>5240.5356</v>
-      </c>
-      <c r="G1151" t="n">
-        <v>-242176.3227250701</v>
-      </c>
-      <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" s="1" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B1152" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="C1152" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1152" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="E1152" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1152" t="n">
-        <v>4310.3388</v>
-      </c>
-      <c r="G1152" t="n">
-        <v>-242176.3227250701</v>
-      </c>
-      <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="J1152" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" s="1" t="n">
-        <v>1151</v>
-      </c>
-      <c r="B1153" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="C1153" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="D1153" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="E1153" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="F1153" t="n">
-        <v>2252.0654</v>
-      </c>
-      <c r="G1153" t="n">
-        <v>-239924.2573250701</v>
-      </c>
-      <c r="H1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="J1153" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" s="1" t="n">
-        <v>1152</v>
-      </c>
-      <c r="B1154" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1154" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1154" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1154" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="F1154" t="n">
-        <v>1421.0181</v>
-      </c>
-      <c r="G1154" t="n">
-        <v>-241345.2754250701</v>
-      </c>
-      <c r="H1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1154" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="J1154" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" s="1" t="n">
-        <v>1153</v>
-      </c>
-      <c r="B1155" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1155" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="D1155" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="E1155" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="F1155" t="n">
-        <v>9666.435799999999</v>
-      </c>
-      <c r="G1155" t="n">
-        <v>-251011.7112250701</v>
-      </c>
-      <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" s="1" t="n">
-        <v>1154</v>
-      </c>
-      <c r="B1156" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1156" t="n">
-        <v>225</v>
-      </c>
-      <c r="D1156" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1156" t="n">
-        <v>225</v>
-      </c>
-      <c r="F1156" t="n">
-        <v>3912.5718</v>
-      </c>
-      <c r="G1156" t="n">
-        <v>-247099.1394250701</v>
-      </c>
-      <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="J1156" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" s="1" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B1157" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C1157" t="n">
-        <v>225</v>
-      </c>
-      <c r="D1157" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1157" t="n">
-        <v>225</v>
-      </c>
-      <c r="F1157" t="n">
-        <v>4554.3765</v>
-      </c>
-      <c r="G1157" t="n">
-        <v>-247099.1394250701</v>
-      </c>
-      <c r="H1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>225</v>
-      </c>
-      <c r="J1157" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" s="1" t="n">
-        <v>1156</v>
-      </c>
-      <c r="B1158" t="n">
-        <v>225</v>
-      </c>
-      <c r="C1158" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="D1158" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E1158" t="n">
-        <v>225</v>
-      </c>
-      <c r="F1158" t="n">
-        <v>2305.8606</v>
-      </c>
-      <c r="G1158" t="n">
-        <v>-244793.2788250701</v>
-      </c>
-      <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1158" t="inlineStr"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" s="1" t="n">
-        <v>1157</v>
-      </c>
-      <c r="B1159" t="n">
-        <v>225</v>
-      </c>
-      <c r="C1159" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="D1159" t="n">
-        <v>225</v>
-      </c>
-      <c r="E1159" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="F1159" t="n">
-        <v>3653.9614</v>
-      </c>
-      <c r="G1159" t="n">
-        <v>-248447.2402250701</v>
-      </c>
-      <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1159" t="inlineStr"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" s="1" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B1160" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="C1160" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="D1160" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="E1160" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="F1160" t="n">
-        <v>978.4447</v>
-      </c>
-      <c r="G1160" t="n">
-        <v>-249425.6849250701</v>
-      </c>
-      <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" s="1" t="n">
-        <v>1159</v>
-      </c>
-      <c r="B1161" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="C1161" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="D1161" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="E1161" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="F1161" t="n">
-        <v>3198.9422</v>
-      </c>
-      <c r="G1161" t="n">
-        <v>-246226.7427250701</v>
-      </c>
-      <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" s="1" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B1162" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="C1162" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="D1162" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="E1162" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="F1162" t="n">
-        <v>2644.0129</v>
-      </c>
-      <c r="G1162" t="n">
-        <v>-248870.7556250701</v>
-      </c>
-      <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1162" t="inlineStr"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" s="1" t="n">
-        <v>1161</v>
-      </c>
-      <c r="B1163" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="C1163" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="D1163" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="E1163" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="F1163" t="n">
-        <v>2204.524</v>
-      </c>
-      <c r="G1163" t="n">
-        <v>-248870.7556250701</v>
-      </c>
-      <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1163" t="inlineStr"/>
-    </row>
-    <row r="1164">
-      <c r="A1164" s="1" t="n">
-        <v>1162</v>
-      </c>
-      <c r="B1164" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="C1164" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="D1164" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="E1164" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="F1164" t="n">
-        <v>1955.0193</v>
-      </c>
-      <c r="G1164" t="n">
-        <v>-246915.7363250701</v>
-      </c>
-      <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39417,9 +38839,7 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39456,9 +38876,7 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39495,9 +38913,7 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39534,9 +38950,7 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39573,9 +38987,7 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39609,14 +39021,10 @@
         <v>-234297.5985250701</v>
       </c>
       <c r="H1170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1170" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="J1170" t="n">
-        <v>224.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1170" t="inlineStr"/>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39653,9 +39061,7 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39692,9 +39098,7 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39731,9 +39135,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39767,14 +39169,10 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1174" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="J1174" t="n">
-        <v>224.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1174" t="inlineStr"/>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39811,9 +39209,7 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39850,9 +39246,7 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39889,9 +39283,7 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39928,9 +39320,7 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39967,9 +39357,7 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40006,9 +39394,7 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40045,9 +39431,7 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40084,9 +39468,7 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40123,9 +39505,7 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40162,9 +39542,7 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40201,9 +39579,7 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40240,9 +39616,7 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40279,9 +39653,7 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40318,9 +39690,7 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40357,9 +39727,7 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40396,9 +39764,7 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40435,9 +39801,7 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40474,9 +39838,7 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40513,9 +39875,7 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40552,9 +39912,7 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40591,9 +39949,7 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40630,9 +39986,7 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40669,9 +40023,7 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40708,9 +40060,7 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40744,12 +40094,12 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40783,12 +40133,12 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>225</v>
+      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40822,12 +40172,12 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>225</v>
+      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40861,12 +40211,12 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>225</v>
+      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40900,12 +40250,12 @@
         <v>-242651.7906250701</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>225</v>
+      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40939,12 +40289,12 @@
         <v>-244960.7548250701</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40978,12 +40328,12 @@
         <v>-241169.1317250701</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>225</v>
+      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41017,12 +40367,12 @@
         <v>-246234.4923250701</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41056,12 +40406,12 @@
         <v>-244064.1661250701</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41095,12 +40445,12 @@
         <v>-244064.1661250701</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41134,12 +40484,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41173,12 +40523,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41212,12 +40562,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41251,12 +40601,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41290,12 +40640,12 @@
         <v>-242018.7270250701</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41329,12 +40679,12 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41368,12 +40718,12 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41407,12 +40757,12 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41446,12 +40796,12 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41485,12 +40835,12 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41524,12 +40874,12 @@
         <v>-242536.6684250702</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41563,12 +40913,12 @@
         <v>-237160.1182250702</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41602,12 +40952,12 @@
         <v>-237160.1182250702</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41641,12 +40991,12 @@
         <v>-237160.1182250702</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41680,12 +41030,12 @@
         <v>-239446.3947250702</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41719,12 +41069,12 @@
         <v>-239446.3947250702</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41758,12 +41108,12 @@
         <v>-233307.7392250702</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41797,12 +41147,12 @@
         <v>-229033.1967250702</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>224.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41839,9 +41189,7 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41878,9 +41226,7 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41917,9 +41263,7 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41956,9 +41300,7 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41995,9 +41337,7 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42034,9 +41374,7 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42070,20 +41408,16 @@
         <v>-142269.9060328201</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>224.4</v>
-      </c>
+      <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1233" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1233" t="inlineStr"/>
       <c r="M1233" t="inlineStr"/>
     </row>
     <row r="1234">
@@ -42109,17 +41443,11 @@
         <v>-151379.7820328201</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42151,14 +41479,8 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42190,14 +41512,8 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42229,14 +41545,8 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42268,14 +41578,8 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42307,14 +41611,8 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42346,14 +41644,8 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42385,14 +41677,8 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -42424,14 +41710,8 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42463,14 +41743,8 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42502,14 +41776,8 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42541,14 +41809,8 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42580,14 +41842,8 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42619,14 +41875,8 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42658,14 +41908,8 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42697,14 +41941,8 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42736,14 +41974,8 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42775,14 +42007,8 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42814,14 +42040,8 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42853,14 +42073,8 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42892,14 +42106,8 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42931,14 +42139,8 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42970,14 +42172,8 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -43006,17 +42202,11 @@
         <v>-150046.9245328201</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -43045,17 +42235,11 @@
         <v>-135071.8249328201</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -43084,17 +42268,11 @@
         <v>-138819.8486328201</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -43123,17 +42301,11 @@
         <v>-142075.5348328201</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -43162,17 +42334,11 @@
         <v>-147236.5820328201</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -43201,17 +42367,11 @@
         <v>-144954.7209328201</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -43240,17 +42400,11 @@
         <v>-147816.2839328201</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -43279,17 +42433,11 @@
         <v>-151428.0546328201</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -43321,14 +42469,8 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -43360,14 +42502,8 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -43399,14 +42535,8 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -43438,14 +42568,8 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -43477,14 +42601,8 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -43516,14 +42634,8 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -43555,14 +42667,8 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -43594,14 +42700,8 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -43633,14 +42733,8 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -43672,14 +42766,8 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -43711,14 +42799,8 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1275" t="inlineStr"/>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -43750,14 +42832,8 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1276" t="inlineStr"/>
+      <c r="K1276" t="inlineStr"/>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -43789,14 +42865,8 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1277" t="inlineStr"/>
+      <c r="K1277" t="inlineStr"/>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -43828,14 +42898,8 @@
         <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr"/>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -43867,14 +42931,8 @@
         <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
-      <c r="J1279" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1279" t="inlineStr"/>
+      <c r="K1279" t="inlineStr"/>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -43906,14 +42964,8 @@
         <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1280" t="inlineStr"/>
+      <c r="K1280" t="inlineStr"/>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -43945,14 +42997,8 @@
         <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1281" t="inlineStr"/>
+      <c r="K1281" t="inlineStr"/>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -43984,14 +43030,8 @@
         <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1282" t="inlineStr"/>
+      <c r="K1282" t="inlineStr"/>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -44023,14 +43063,8 @@
         <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1283" t="inlineStr"/>
+      <c r="K1283" t="inlineStr"/>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -44062,14 +43096,8 @@
         <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
-      <c r="J1284" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1284" t="inlineStr"/>
+      <c r="K1284" t="inlineStr"/>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -44101,14 +43129,8 @@
         <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
-      <c r="J1285" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1285" t="inlineStr"/>
+      <c r="K1285" t="inlineStr"/>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -44140,14 +43162,8 @@
         <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
-      <c r="J1286" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1286" t="inlineStr"/>
+      <c r="K1286" t="inlineStr"/>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -44179,14 +43195,8 @@
         <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
-      <c r="J1287" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1287" t="inlineStr"/>
+      <c r="K1287" t="inlineStr"/>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -44218,14 +43228,8 @@
         <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
-      <c r="J1288" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1288" t="inlineStr"/>
+      <c r="K1288" t="inlineStr"/>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -44257,14 +43261,8 @@
         <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1289" t="inlineStr"/>
+      <c r="K1289" t="inlineStr"/>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -44296,14 +43294,8 @@
         <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1290" t="inlineStr"/>
+      <c r="K1290" t="inlineStr"/>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -44335,14 +43327,8 @@
         <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
-      <c r="J1291" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1291" t="inlineStr"/>
+      <c r="K1291" t="inlineStr"/>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -44374,14 +43360,8 @@
         <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1292" t="inlineStr"/>
+      <c r="K1292" t="inlineStr"/>
       <c r="L1292" t="n">
         <v>1</v>
       </c>
@@ -44413,14 +43393,8 @@
         <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
-      <c r="J1293" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1293" t="inlineStr"/>
+      <c r="K1293" t="inlineStr"/>
       <c r="L1293" t="n">
         <v>1</v>
       </c>
@@ -44452,14 +43426,8 @@
         <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
-      <c r="J1294" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1294" t="inlineStr"/>
+      <c r="K1294" t="inlineStr"/>
       <c r="L1294" t="n">
         <v>1</v>
       </c>
@@ -44491,14 +43459,8 @@
         <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1295" t="inlineStr"/>
+      <c r="K1295" t="inlineStr"/>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -44530,14 +43492,8 @@
         <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr"/>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -44569,14 +43525,8 @@
         <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1297" t="inlineStr"/>
+      <c r="K1297" t="inlineStr"/>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -44608,14 +43558,8 @@
         <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1298" t="inlineStr"/>
+      <c r="K1298" t="inlineStr"/>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -44647,14 +43591,8 @@
         <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1299" t="inlineStr"/>
+      <c r="K1299" t="inlineStr"/>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -44686,14 +43624,8 @@
         <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1300" t="inlineStr"/>
+      <c r="K1300" t="inlineStr"/>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -44725,14 +43657,8 @@
         <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1301" t="inlineStr"/>
+      <c r="K1301" t="inlineStr"/>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -44764,14 +43690,8 @@
         <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1302" t="inlineStr"/>
+      <c r="K1302" t="inlineStr"/>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -44803,14 +43723,8 @@
         <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
-      <c r="J1303" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr"/>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -44842,14 +43756,8 @@
         <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr"/>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -44881,14 +43789,8 @@
         <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
-      <c r="J1305" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1305" t="inlineStr"/>
+      <c r="K1305" t="inlineStr"/>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -44920,14 +43822,8 @@
         <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr"/>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -44959,14 +43855,8 @@
         <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
-      <c r="J1307" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1307" t="inlineStr"/>
+      <c r="K1307" t="inlineStr"/>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -44998,14 +43888,8 @@
         <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
-      <c r="J1308" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr"/>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -45037,14 +43921,8 @@
         <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr"/>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -45076,14 +43954,8 @@
         <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr"/>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -45115,14 +43987,8 @@
         <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr"/>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -45154,14 +44020,8 @@
         <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1312" t="inlineStr"/>
+      <c r="K1312" t="inlineStr"/>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -45193,14 +44053,8 @@
         <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
-      <c r="J1313" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1313" t="inlineStr"/>
+      <c r="K1313" t="inlineStr"/>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -45232,14 +44086,8 @@
         <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
-      <c r="J1314" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1314" t="inlineStr"/>
+      <c r="K1314" t="inlineStr"/>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -45271,14 +44119,8 @@
         <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
-      <c r="J1315" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1315" t="inlineStr"/>
+      <c r="K1315" t="inlineStr"/>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -45310,14 +44152,8 @@
         <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
-      <c r="J1316" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1316" t="inlineStr"/>
+      <c r="K1316" t="inlineStr"/>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -45349,14 +44185,8 @@
         <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1317" t="inlineStr"/>
+      <c r="K1317" t="inlineStr"/>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -45388,14 +44218,8 @@
         <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1318" t="inlineStr"/>
+      <c r="K1318" t="inlineStr"/>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -45427,14 +44251,8 @@
         <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1319" t="inlineStr"/>
+      <c r="K1319" t="inlineStr"/>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -45466,14 +44284,8 @@
         <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1320" t="inlineStr"/>
+      <c r="K1320" t="inlineStr"/>
       <c r="L1320" t="n">
         <v>1</v>
       </c>
@@ -45505,14 +44317,8 @@
         <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
-      <c r="J1321" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1321" t="inlineStr"/>
+      <c r="K1321" t="inlineStr"/>
       <c r="L1321" t="n">
         <v>1</v>
       </c>
@@ -45544,14 +44350,8 @@
         <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
-      <c r="J1322" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1322" t="inlineStr"/>
+      <c r="K1322" t="inlineStr"/>
       <c r="L1322" t="n">
         <v>1</v>
       </c>
@@ -45583,14 +44383,8 @@
         <v>0</v>
       </c>
       <c r="I1323" t="inlineStr"/>
-      <c r="J1323" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1323" t="inlineStr"/>
+      <c r="K1323" t="inlineStr"/>
       <c r="L1323" t="n">
         <v>1</v>
       </c>
@@ -45622,14 +44416,8 @@
         <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
-      <c r="J1324" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1324" t="inlineStr"/>
+      <c r="K1324" t="inlineStr"/>
       <c r="L1324" t="n">
         <v>1</v>
       </c>
@@ -45661,20 +44449,14 @@
         <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
-      <c r="J1325" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="K1325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1325" t="inlineStr"/>
+      <c r="K1325" t="inlineStr"/>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
       <c r="M1325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-22 BackTest LUNA.xlsx
@@ -451,7 +451,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>25746.92958478</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>24348.04818478</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>27464.14638478</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>31818.28778478</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>27636.34448478</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>32504.68888478</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>29401.00068478</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>31250.63578478</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>33761.09928478</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>32448.61318478</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -38797,54 +38797,50 @@
         <v>-246915.7363250701</v>
       </c>
       <c r="H1164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1164" t="n">
-        <v>224.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
+      <c r="K1164" t="inlineStr"/>
+      <c r="L1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>6995.0196</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>-246915.7363250701</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="J1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1164" t="inlineStr"/>
-    </row>
-    <row r="1165">
-      <c r="A1165" s="1" t="n">
-        <v>1163</v>
-      </c>
-      <c r="B1165" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="C1165" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="D1165" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="E1165" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="F1165" t="n">
-        <v>6995.0196</v>
-      </c>
-      <c r="G1165" t="n">
-        <v>-246915.7363250701</v>
-      </c>
-      <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38873,9 +38869,11 @@
         <v>-239654.5779250701</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>224.7</v>
+      </c>
       <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
@@ -38910,9 +38908,11 @@
         <v>-243265.3845250701</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>224.9</v>
+      </c>
       <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
@@ -38947,9 +38947,11 @@
         <v>-241138.5532250701</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>224.7</v>
+      </c>
       <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
@@ -38984,9 +38986,11 @@
         <v>-233555.2369250701</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>224.8</v>
+      </c>
       <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39021,9 +39025,11 @@
         <v>-234297.5985250701</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>225.5</v>
+      </c>
       <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39058,9 +39064,11 @@
         <v>-236809.0132250701</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39095,9 +39103,11 @@
         <v>-236809.0132250701</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>225</v>
+      </c>
       <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39132,9 +39142,11 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>225</v>
+      </c>
       <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39169,9 +39181,11 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39206,9 +39220,11 @@
         <v>-236151.7290250701</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39243,9 +39259,11 @@
         <v>-238435.4044250701</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
@@ -39280,9 +39298,11 @@
         <v>-238435.4044250701</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>225</v>
+      </c>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
@@ -39317,9 +39337,11 @@
         <v>-236267.9951250701</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>225</v>
+      </c>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
@@ -39354,9 +39376,11 @@
         <v>-236446.0728250701</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
@@ -39391,9 +39415,11 @@
         <v>-236446.0728250701</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>225</v>
+      </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
@@ -39428,9 +39454,11 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>225</v>
+      </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
@@ -39465,9 +39493,11 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
@@ -39502,9 +39532,11 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
@@ -39539,9 +39571,11 @@
         <v>-229506.3885250701</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
@@ -39576,9 +39610,11 @@
         <v>-229595.4279250701</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
@@ -39613,9 +39649,11 @@
         <v>-229035.7474250701</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>225</v>
+      </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
@@ -39650,9 +39688,11 @@
         <v>-229035.7474250701</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
@@ -39724,9 +39764,11 @@
         <v>-230408.6222250701</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>225</v>
+      </c>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
@@ -39761,9 +39803,11 @@
         <v>-230408.6222250701</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>225</v>
+      </c>
       <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
@@ -39798,9 +39842,11 @@
         <v>-229163.1021250701</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>225</v>
+      </c>
       <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
@@ -39835,9 +39881,11 @@
         <v>-229252.1812250701</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
@@ -39872,9 +39920,11 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>225</v>
+      </c>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
@@ -39909,9 +39959,11 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
@@ -39946,9 +39998,11 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
@@ -39983,9 +40037,11 @@
         <v>-227881.9241250701</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>225.1</v>
+      </c>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
@@ -40094,11 +40150,9 @@
         <v>-246050.3319250701</v>
       </c>
       <c r="H1199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1199" t="n">
-        <v>224.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
@@ -41186,9 +41240,11 @@
         <v>-213230.6214250702</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>227.5</v>
+      </c>
       <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
@@ -41408,16 +41464,18 @@
         <v>-142269.9060328201</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1233" t="inlineStr"/>
+      <c r="L1233" t="n">
+        <v>1</v>
+      </c>
       <c r="M1233" t="inlineStr"/>
     </row>
     <row r="1234">
@@ -41443,11 +41501,15 @@
         <v>-151379.7820328201</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41480,7 +41542,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41513,7 +41579,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41546,7 +41616,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41579,7 +41653,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41612,7 +41690,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41645,7 +41727,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41678,7 +41764,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41711,7 +41801,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41744,7 +41838,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41777,7 +41875,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41810,7 +41912,11 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41843,7 +41949,11 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41876,7 +41986,11 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41909,7 +42023,11 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41942,7 +42060,11 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41975,7 +42097,11 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42008,7 +42134,11 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42041,7 +42171,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42074,7 +42208,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42107,7 +42245,11 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42140,7 +42282,11 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42173,7 +42319,11 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -42202,11 +42352,15 @@
         <v>-150046.9245328201</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -42235,11 +42389,15 @@
         <v>-135071.8249328201</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42268,11 +42426,15 @@
         <v>-138819.8486328201</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42301,11 +42463,15 @@
         <v>-142075.5348328201</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42334,11 +42500,15 @@
         <v>-147236.5820328201</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42367,11 +42537,15 @@
         <v>-144954.7209328201</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42400,11 +42574,15 @@
         <v>-147816.2839328201</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42433,11 +42611,15 @@
         <v>-151428.0546328201</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42470,7 +42652,11 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42503,7 +42689,11 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42536,7 +42726,11 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42569,7 +42763,11 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42602,7 +42800,11 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42635,7 +42837,11 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -42668,7 +42874,11 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -42701,7 +42911,11 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -42734,7 +42948,11 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -42767,7 +42985,11 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -42800,7 +43022,11 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr"/>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -42833,7 +43059,11 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr"/>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -42866,7 +43096,11 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr"/>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -42899,7 +43133,11 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -42932,7 +43170,11 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr"/>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -42965,7 +43207,11 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr"/>
+      <c r="K1280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -42998,7 +43244,11 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr"/>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -43031,7 +43281,11 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr"/>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -43064,7 +43318,11 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr"/>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -43097,7 +43355,11 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
-      <c r="K1284" t="inlineStr"/>
+      <c r="K1284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -43130,7 +43392,11 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr"/>
+      <c r="K1285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -43163,7 +43429,11 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr"/>
+      <c r="K1286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -43196,7 +43466,11 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr"/>
+      <c r="K1287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -43229,7 +43503,11 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr"/>
+      <c r="K1288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -43262,7 +43540,11 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr"/>
+      <c r="K1289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -43295,7 +43577,11 @@
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr"/>
+      <c r="K1290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -43328,7 +43614,11 @@
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
-      <c r="K1291" t="inlineStr"/>
+      <c r="K1291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -43361,7 +43651,11 @@
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
-      <c r="K1292" t="inlineStr"/>
+      <c r="K1292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1292" t="n">
         <v>1</v>
       </c>
@@ -43394,7 +43688,11 @@
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
-      <c r="K1293" t="inlineStr"/>
+      <c r="K1293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1293" t="n">
         <v>1</v>
       </c>
@@ -43427,7 +43725,11 @@
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
-      <c r="K1294" t="inlineStr"/>
+      <c r="K1294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1294" t="n">
         <v>1</v>
       </c>
@@ -43460,7 +43762,11 @@
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
-      <c r="K1295" t="inlineStr"/>
+      <c r="K1295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -43493,7 +43799,11 @@
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -43526,7 +43836,11 @@
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr"/>
+      <c r="K1297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -43559,7 +43873,11 @@
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr"/>
+      <c r="K1298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -43592,7 +43910,11 @@
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr"/>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -43625,7 +43947,11 @@
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr"/>
+      <c r="K1300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -43658,7 +43984,11 @@
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr"/>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -43691,7 +44021,11 @@
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr"/>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -43724,7 +44058,11 @@
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -43757,7 +44095,11 @@
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -43790,7 +44132,11 @@
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr"/>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -43823,7 +44169,11 @@
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -43856,7 +44206,11 @@
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr"/>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -43889,7 +44243,11 @@
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -43922,7 +44280,11 @@
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -43955,7 +44317,11 @@
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -43988,7 +44354,11 @@
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -44021,7 +44391,11 @@
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr"/>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -44054,7 +44428,11 @@
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr"/>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -44087,7 +44465,11 @@
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr"/>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -44120,7 +44502,11 @@
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr"/>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -44153,7 +44539,11 @@
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr"/>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -44186,7 +44576,11 @@
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr"/>
+      <c r="K1317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -44219,7 +44613,11 @@
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr"/>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -44252,7 +44650,11 @@
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr"/>
+      <c r="K1319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -44285,7 +44687,11 @@
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
-      <c r="K1320" t="inlineStr"/>
+      <c r="K1320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1320" t="n">
         <v>1</v>
       </c>
@@ -44318,7 +44724,11 @@
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
-      <c r="K1321" t="inlineStr"/>
+      <c r="K1321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1321" t="n">
         <v>1</v>
       </c>
@@ -44351,7 +44761,11 @@
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
-      <c r="K1322" t="inlineStr"/>
+      <c r="K1322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1322" t="n">
         <v>1</v>
       </c>
@@ -44384,7 +44798,11 @@
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
-      <c r="K1323" t="inlineStr"/>
+      <c r="K1323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1323" t="n">
         <v>1</v>
       </c>
@@ -44417,7 +44835,11 @@
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
-      <c r="K1324" t="inlineStr"/>
+      <c r="K1324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1324" t="n">
         <v>1</v>
       </c>
@@ -44450,7 +44872,11 @@
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
-      <c r="K1325" t="inlineStr"/>
+      <c r="K1325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
